--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACT-STUDENT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACT-STUDENT\source\repos\evedri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF723155-E329-4310-B8CC-39F377595C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECB2098-751E-4BBF-980F-A50627595D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{46619AC4-340F-4EF5-9427-D7967F22E807}"/>
+    <workbookView xWindow="5610" yWindow="1365" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{46619AC4-340F-4EF5-9427-D7967F22E807}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>NAME</t>
   </si>
@@ -33,47 +35,111 @@
     <t>GENDER</t>
   </si>
   <si>
-    <t xml:space="preserve">CONTACT NUMBER </t>
-  </si>
-  <si>
-    <t>FAVORATE GAME</t>
-  </si>
-  <si>
     <t>USERNAME</t>
   </si>
   <si>
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>John Ruscel B. Ricaplaza</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>ProGamerz</t>
-  </si>
-  <si>
-    <t>chaine mea fernandize</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
-    <t>Chainize</t>
+    <t>HOBBIES</t>
+  </si>
+  <si>
+    <t>FAVCOLOR</t>
+  </si>
+  <si>
+    <t>SAYING</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>PROFILE PICTURE</t>
+  </si>
+  <si>
+    <t>Ricaplaza</t>
+  </si>
+  <si>
+    <t>fernandez</t>
+  </si>
+  <si>
+    <t>Johnruscel12345@gmail.com</t>
+  </si>
+  <si>
+    <t>Fernandezchelse@gmail.com</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>Lets play</t>
+  </si>
+  <si>
+    <t>Ktv</t>
+  </si>
+  <si>
+    <t>COURSE</t>
+  </si>
+  <si>
+    <t>BSIT</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>BIRTHDATE</t>
+  </si>
+  <si>
+    <t>Chelse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,13 +162,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40755A21-1A16-4A50-B45A-3FD70E620C71}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +499,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,56 +507,179 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2">
         <v>9493263385</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>12345</v>
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>1234</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>9488654620</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>12345</v>
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>1234</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{075ACABD-7217-4E6D-9E2A-682978AEBF97}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{7B5C2A83-712A-4931-A24F-DAB0C89125B8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24EDA01-C949-4087-B415-1E170DB70EA8}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E98A0-0245-4E25-B4C8-1C38231166EE}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5">
+        <v>38363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <v>38772</v>
       </c>
     </row>
   </sheetData>
